--- a/dados/umidade.xlsx
+++ b/dados/umidade.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\2DSTB-12\Disciplinas\PWBE\Integrador\Dados Integrador\Dados Integrador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49374446898\Documents\SmartCity_Backend\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3226C970-FD94-4098-8713-FCA4089F9276}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019D90C2-EBA3-4AD3-A98B-9137A92062EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,10 +58,10 @@
     <t>%</t>
   </si>
   <si>
-    <t>True</t>
+    <t>ativo</t>
   </si>
   <si>
-    <t>False</t>
+    <t>inativo</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4500,5 +4500,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>